--- a/ClueLayout.xlsx
+++ b/ClueLayout.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kenda\CSCI306\Clue\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/eee6af50fd57f2e4/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B48D919F-5BFB-4379-B43D-F899725FA685}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5C4C17FC-CA2F-44CB-9C71-49ADA7149ED9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6204" yWindow="2328" windowWidth="12396" windowHeight="8964" xr2:uid="{45788EF4-2EB1-4F7A-846A-CDBFCCB306A0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8F141023-AB6C-4FB6-8629-EA7309D3762D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,9 +32,47 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="11">
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>W&gt;</t>
+  </si>
+  <si>
+    <t>W&lt;</t>
+  </si>
+  <si>
+    <t>Wv</t>
+  </si>
+  <si>
+    <t>W^</t>
+  </si>
+  <si>
+    <t>SK</t>
+  </si>
+  <si>
+    <t>KS</t>
+  </si>
+  <si>
+    <t>OC</t>
+  </si>
+  <si>
+    <t>CO</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -42,13 +80,49 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -63,8 +137,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -378,13 +459,1787 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78B8BA1A-5A92-4BBF-BF8F-7B8707A8751D}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13DC3903-A111-4D83-8C53-1A4561976437}">
+  <dimension ref="A1:S30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="S1" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="R5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="S5" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="P6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="R6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="S6" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="O7" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="P7" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="R7" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="S7" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="O8" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="P8" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="R8" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="S8" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="O9" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="P9" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="R9" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="S9" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="O10" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="P10" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="R10" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="S10" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="O11" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="P11" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="R11" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="S11" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="O12" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="P12" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="R12" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="S12" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="O13" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="P13" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="R13" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="S13" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="O14" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="P14" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="R14" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="S14" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="O15" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="P15" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="R15" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="S15" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="M16" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="N16" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="O16" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="P16" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="R16" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="S16" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="O17" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="P17" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="R17" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="S17" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="O18" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="P18" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="R18" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="S18" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="M19" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="N19" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="O19" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="P19" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="R19" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="S19" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K20" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="L20" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="M20" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="N20" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="O20" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="P20" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="R20" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="S20" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K21" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="L21" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="M21" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="N21" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="O21" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="P21" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="R21" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="S21" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K22" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="L22" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="M22" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="N22" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="O22" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="P22" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="R22" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="S22" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J23" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K23" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="L23" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="M23" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="N23" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="O23" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="P23" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="R23" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="S23" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J24" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K24" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="L24" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="M24" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="N24" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="O24" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="P24" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="R24" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="S24" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J25" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K25" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="L25" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="M25" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="N25" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="O25" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="P25" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="R25" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="S25" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J26" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K26" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="L26" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="M26" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="N26" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="O26" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="P26" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="R26" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="S26" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J27" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K27" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="L27" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="M27" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="N27" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="O27" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="P27" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q27" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="R27" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="S27" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="M28" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N28" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="O28" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="P28" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q28" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="R28" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="S28" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="M29" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N29" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="O29" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="P29" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q29" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="R29" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="S29" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A30" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L30" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="M30" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N30" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="O30" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="P30" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q30" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="R30" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="S30" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/ClueLayout.xlsx
+++ b/ClueLayout.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kenda\CSCI306\Clue\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carso\eclipse-workspace\Clue\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19D211CE-6373-4213-8ECB-95256400CB70}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B897D26-6D95-4D28-A504-417E1C0022F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8F141023-AB6C-4FB6-8629-EA7309D3762D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8F141023-AB6C-4FB6-8629-EA7309D3762D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -165,7 +165,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -202,6 +202,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -215,7 +221,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -224,6 +230,8 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -541,12 +549,12 @@
   <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+      <selection activeCell="M34" sqref="M34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B1">
         <v>0</v>
       </c>
@@ -605,7 +613,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -636,7 +644,7 @@
       <c r="J2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="8" t="s">
         <v>17</v>
       </c>
       <c r="L2" s="2" t="s">
@@ -667,14 +675,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="8" t="s">
         <v>29</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -698,7 +706,7 @@
       <c r="J3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="K3" s="8" t="s">
         <v>18</v>
       </c>
       <c r="L3" s="2" t="s">
@@ -722,21 +730,21 @@
       <c r="R3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="S3" s="2" t="s">
+      <c r="S3" s="8" t="s">
         <v>7</v>
       </c>
       <c r="T3" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="8" t="s">
         <v>30</v>
       </c>
       <c r="D4" s="2" t="s">
@@ -784,14 +792,14 @@
       <c r="R4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="S4" s="2" t="s">
+      <c r="S4" s="8" t="s">
         <v>8</v>
       </c>
       <c r="T4" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -853,7 +861,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -915,7 +923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -977,7 +985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1039,7 +1047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1101,7 +1109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1163,7 +1171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1206,7 +1214,7 @@
       <c r="N11" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="O11" s="2" t="s">
+      <c r="O11" s="8" t="s">
         <v>20</v>
       </c>
       <c r="P11" s="2" t="s">
@@ -1225,7 +1233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1247,7 +1255,7 @@
       <c r="G12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="H12" s="9" t="s">
         <v>23</v>
       </c>
       <c r="I12" s="1" t="s">
@@ -1268,7 +1276,7 @@
       <c r="N12" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="O12" s="2" t="s">
+      <c r="O12" s="8" t="s">
         <v>21</v>
       </c>
       <c r="P12" s="2" t="s">
@@ -1287,7 +1295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1309,7 +1317,7 @@
       <c r="G13" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="H13" s="9" t="s">
         <v>24</v>
       </c>
       <c r="I13" s="1" t="s">
@@ -1349,7 +1357,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1411,7 +1419,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1473,7 +1481,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1535,7 +1543,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1597,7 +1605,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
@@ -1659,7 +1667,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
@@ -1721,7 +1729,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
@@ -1752,7 +1760,7 @@
       <c r="J20" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K20" s="2" t="s">
+      <c r="K20" s="8" t="s">
         <v>35</v>
       </c>
       <c r="L20" s="2" t="s">
@@ -1783,7 +1791,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
@@ -1814,7 +1822,7 @@
       <c r="J21" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K21" s="2" t="s">
+      <c r="K21" s="8" t="s">
         <v>36</v>
       </c>
       <c r="L21" s="2" t="s">
@@ -1845,7 +1853,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
@@ -1900,14 +1908,14 @@
       <c r="R22" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="S22" s="2" t="s">
+      <c r="S22" s="8" t="s">
         <v>33</v>
       </c>
       <c r="T22" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
@@ -1965,15 +1973,15 @@
       <c r="S23" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="T23" s="2" t="s">
+      <c r="T23" s="8" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="8" t="s">
         <v>31</v>
       </c>
       <c r="C24" s="2" t="s">
@@ -2031,11 +2039,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="8" t="s">
         <v>32</v>
       </c>
       <c r="C25" s="2" t="s">
@@ -2093,7 +2101,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
@@ -2155,7 +2163,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
@@ -2217,7 +2225,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
@@ -2279,7 +2287,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>27</v>
       </c>
@@ -2310,7 +2318,7 @@
       <c r="J29" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="K29" s="2" t="s">
+      <c r="K29" s="8" t="s">
         <v>26</v>
       </c>
       <c r="L29" s="2" t="s">
@@ -2341,7 +2349,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>28</v>
       </c>
@@ -2372,7 +2380,7 @@
       <c r="J30" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="K30" s="2" t="s">
+      <c r="K30" s="8" t="s">
         <v>27</v>
       </c>
       <c r="L30" s="2" t="s">
@@ -2403,7 +2411,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>29</v>
       </c>
